--- a/Data/Gradient_Month_05.xlsx
+++ b/Data/Gradient_Month_05.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,131 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36.45192337036133</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.148383855819702</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19.09218978881836</v>
+      </c>
+      <c r="E21" t="n">
+        <v>48.14522552490234</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18476</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36.44610214233398</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.229307174682617</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18.54372787475586</v>
+      </c>
+      <c r="E22" t="n">
+        <v>47.85818099975586</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18568</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36.37449645996094</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.262782573699951</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.85298538208008</v>
+      </c>
+      <c r="E23" t="n">
+        <v>46.3990364074707</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18438</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36.27005004882812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.278586387634277</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.97258758544922</v>
+      </c>
+      <c r="E24" t="n">
+        <v>46.96799850463867</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18366</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B25" t="n">
+        <v>36.18234252929688</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.3784499168396</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18.52151679992676</v>
+      </c>
+      <c r="E25" t="n">
+        <v>50.05373001098633</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18392</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
